--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model equation class-distr.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Model equation class-distr.xlsx
@@ -44,24 +44,105 @@
     <t>Model equation class_3</t>
   </si>
   <si>
+    <t>Decreasing Log-logistic (Beta0, Beta1)</t>
+  </si>
+  <si>
+    <t>Model equation class_12</t>
+  </si>
+  <si>
+    <t>Decreasing Log10-Logistic (Beta0, Beta1)</t>
+  </si>
+  <si>
+    <t>Model equation class_10</t>
+  </si>
+  <si>
+    <t>Decreasing Logistic (Beta0, Beta1)</t>
+  </si>
+  <si>
+    <t>Model equation class_11</t>
+  </si>
+  <si>
+    <t>Decreasing Probit (Alpha, Beta)</t>
+  </si>
+  <si>
+    <t>Model equation class_13</t>
+  </si>
+  <si>
     <t>Empirical</t>
   </si>
   <si>
     <t>Model equation class_4</t>
   </si>
   <si>
+    <t>Gamma (Alpha, Beta)</t>
+  </si>
+  <si>
+    <t>Model equation class_14</t>
+  </si>
+  <si>
     <t>Linear by Slope Factor (Slope)</t>
   </si>
   <si>
     <t>Model equation class_5</t>
   </si>
   <si>
+    <t>Log-Logistic (Alpha, Beta)</t>
+  </si>
+  <si>
+    <t>Model equation class_16</t>
+  </si>
+  <si>
+    <t>Log-logistic with background (Alpha, Beta, Gamma)</t>
+  </si>
+  <si>
+    <t>Model equation class_17</t>
+  </si>
+  <si>
+    <t>Logistic (Alpha, Beta)</t>
+  </si>
+  <si>
+    <t>Model equation class_15</t>
+  </si>
+  <si>
+    <t>Multistage (Beta1, Beta2, Beta3)</t>
+  </si>
+  <si>
+    <t>Model equation class_18</t>
+  </si>
+  <si>
     <t>Non-Threshold Linear (Reference point, Risk at Reference Point)</t>
   </si>
   <si>
     <t>Model equation class_6</t>
   </si>
   <si>
+    <t>Model equation class_19</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Model equation class_23</t>
+  </si>
+  <si>
+    <t>Probit (Alpha, Beta)</t>
+  </si>
+  <si>
+    <t>Model equation class_20</t>
+  </si>
+  <si>
+    <t>Restricted Log-Probit (Alpha, Beta, Gamma)</t>
+  </si>
+  <si>
+    <t>Model equation class_21</t>
+  </si>
+  <si>
+    <t>Restricted Weibull  (Alpha, Beta, Gamma)</t>
+  </si>
+  <si>
+    <t>Model equation class_22</t>
+  </si>
+  <si>
     <t>Step Threshold (Threshold)</t>
   </si>
   <si>
@@ -78,87 +159,6 @@
   </si>
   <si>
     <t>Model equation class_9</t>
-  </si>
-  <si>
-    <t>Decreasing Log10-Logistic (Beta0, Beta1)</t>
-  </si>
-  <si>
-    <t>Model equation class_10</t>
-  </si>
-  <si>
-    <t>Decreasing Logistic (Beta0, Beta1)</t>
-  </si>
-  <si>
-    <t>Model equation class_11</t>
-  </si>
-  <si>
-    <t>Decreasing Log-logistic (Beta0, Beta1)</t>
-  </si>
-  <si>
-    <t>Model equation class_12</t>
-  </si>
-  <si>
-    <t>Decreasing Probit (Alpha, Beta)</t>
-  </si>
-  <si>
-    <t>Model equation class_13</t>
-  </si>
-  <si>
-    <t>Gamma (Alpha, Beta)</t>
-  </si>
-  <si>
-    <t>Model equation class_14</t>
-  </si>
-  <si>
-    <t>Logistic (Alpha, Beta)</t>
-  </si>
-  <si>
-    <t>Model equation class_15</t>
-  </si>
-  <si>
-    <t>Log-Logistic (Alpha, Beta)</t>
-  </si>
-  <si>
-    <t>Model equation class_16</t>
-  </si>
-  <si>
-    <t>Log-logistic with background (Alpha, Beta, Gamma)</t>
-  </si>
-  <si>
-    <t>Model equation class_17</t>
-  </si>
-  <si>
-    <t>Multistage (Beta1, Beta2, Beta3)</t>
-  </si>
-  <si>
-    <t>Model equation class_18</t>
-  </si>
-  <si>
-    <t>Model equation class_19</t>
-  </si>
-  <si>
-    <t>Probit (Alpha, Beta)</t>
-  </si>
-  <si>
-    <t>Model equation class_20</t>
-  </si>
-  <si>
-    <t>Restricted Log-Probit (Alpha, Beta, Gamma)</t>
-  </si>
-  <si>
-    <t>Model equation class_21</t>
-  </si>
-  <si>
-    <t>Restricted Weibull  (Alpha, Beta, Gamma)</t>
-  </si>
-  <si>
-    <t>Model equation class_22</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Model equation class_23</t>
   </si>
 </sst>
 </file>
@@ -342,31 +342,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
